--- a/grafik_APP_2022_yy.xlsx
+++ b/grafik_APP_2022_yy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoyordan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hybrid-app-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90CC3E-1C56-4507-8C3B-54F795E3E658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9ED343-812D-40B3-8D3C-5DA7B24F9A8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 3) максимум 3 точки от 1во контролно 
 4) максимум 3 точки от 2ро контролно 
 5) максимум 10 точки от полагане на "автоматизиран" изпит в платформата https://students-manager.site/Click 
-6) максимум 20 точки от курсов проект</t>
+6) максимум 20 точки от курсов проект https://students-manager.site/Coursework</t>
   </si>
 </sst>
 </file>
@@ -888,7 +888,7 @@
   <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
